--- a/src/test/resources/exportDb/exportDb.xlsx
+++ b/src/test/resources/exportDb/exportDb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\exportDb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA1AB9A-CF54-4845-98C8-6A6B5D328714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EC727-A1D8-4CB5-A3D2-96A9E8D00B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -59,36 +59,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0451A5"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -100,10 +106,85 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -117,23 +198,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,35 +536,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/test/resources/exportDb/exportDb.xlsx
+++ b/src/test/resources/exportDb/exportDb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\exportDb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\exportDb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EC727-A1D8-4CB5-A3D2-96A9E8D00B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F37A3FE-C7E8-4778-9983-5FFD60E37518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1"/>
@@ -30,12 +30,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>select * from user1;
-select * from user2;</t>
+    <t>select * from sys_user;
+select * from sys_user;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"target":"test","path":"gen.xlsx"}</t>
+    <t>{"target":"C:\\projs\\github\\auto-test\\src\\test\\resources\\exportDb\\db.conf","path":"download/gen1.xlsx"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "target": {
+    "url": "jdbc:mysql://192.168.0.106:3306/auto-test?useUnicode=true&amp;characterEncoding=utf8&amp;useSSL=false",
+    "user": "root",
+    "pass": "123456",
+    "remark": "test"
+  },
+  "path": "download/gen2.xlsx"
+}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -43,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -60,21 +72,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0451A5"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -205,19 +202,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -238,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -384,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,35 +531,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="56.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/test/resources/exportDb/exportDb.xlsx
+++ b/src/test/resources/exportDb/exportDb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\exportDb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F37A3FE-C7E8-4778-9983-5FFD60E37518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3ABA36-9DB3-445F-8FD8-D9DC58CED355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1"/>
@@ -35,19 +35,113 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"target":"C:\\projs\\github\\auto-test\\src\\test\\resources\\exportDb\\db.conf","path":"download/gen1.xlsx"}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{
+    <r>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"file","target":"C:\\projs\\github\\auto-test\\src\\test\\resources\\exportDb\\db.conf","path":"download/gen1.xlsx"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"target":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>","path":"download/gen2.xlsx"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type":"json",
   "target": {
-    "url": "jdbc:mysql://192.168.0.106:3306/auto-test?useUnicode=true&amp;characterEncoding=utf8&amp;useSSL=false",
+    "url": "jdbc:mysql://192.168.0.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:3306/auto-test?useUnicode=true&amp;characterEncoding=utf8&amp;useSSL=false",
     "user": "root",
     "pass": "123456",
     "remark": "test"
   },
-  "path": "download/gen2.xlsx"
+  "path": "download/gen3.xlsx"
 }</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定文件配置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>默认文件,指定配置组</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>json配置</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -55,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -75,6 +169,19 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,47 +641,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="56.19921875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:4" ht="144.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
